--- a/data/math/math-89.xlsx
+++ b/data/math/math-89.xlsx
@@ -464,10 +464,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            addValue((Comparable&lt;?&gt;) v);            
+</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>1.00000</t>
@@ -488,10 +493,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    public Frequency() {
+</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -512,10 +522,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        freqTable = new TreeMap();
+</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -536,10 +551,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -552,7 +572,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.stat.Frequency$NaturalComparator</t>
+          <t>org.apache.commons.math.stat.Frequency</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -560,10 +580,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    private static class NaturalComparator implements Comparator, Serializable {
+</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -576,7 +601,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.stat.Frequency$NaturalComparator</t>
+          <t>org.apache.commons.math.stat.Frequency</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -584,10 +609,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return ((Comparable)o1).compareTo(o2);
+</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -608,10 +638,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    public Frequency(Comparator comparator) {
+</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -632,10 +667,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        freqTable = new TreeMap(comparator);
+</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -656,10 +696,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -680,10 +725,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        NumberFormat nf = NumberFormat.getPercentInstance();
+</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -704,10 +754,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        StringBuffer outBuffer = new StringBuffer();
+</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -728,10 +783,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        outBuffer.append("Value \t Freq. \t Pct. \t Cum Pct. \n");
+</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -752,10 +812,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Iterator iter = freqTable.keySet().iterator();
+</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -776,10 +841,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        while (iter.hasNext()) {
+</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -800,10 +870,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Object value = iter.next();
+</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -824,10 +899,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            outBuffer.append(value);
+</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -848,10 +928,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            outBuffer.append('\t');
+</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -872,10 +957,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            outBuffer.append(getCount(value));
+</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -896,10 +986,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            outBuffer.append('\t');
+</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -920,10 +1015,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            outBuffer.append(nf.format(getPct(value)));
+</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -944,10 +1044,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            outBuffer.append('\t');
+</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -968,10 +1073,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            outBuffer.append(nf.format(getCumPct(value)));
+</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -992,10 +1102,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            outBuffer.append('\n');
+</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1016,10 +1131,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        }
+</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1040,10 +1160,15 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return outBuffer.toString();
+</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1064,17 +1189,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>0.00000</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1088,10 +1218,15 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Object obj = v;
+</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1112,10 +1247,15 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (v instanceof Integer) {
+</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1136,10 +1276,15 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">           obj = Long.valueOf(((Integer) v).longValue());
+</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1160,10 +1305,15 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Long count = (Long) freqTable.get(obj);
+</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1184,10 +1334,15 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (count == null) {
+</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1208,10 +1363,15 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                freqTable.put(obj, Long.valueOf(1));
+</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1232,10 +1392,15 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                freqTable.put(obj, Long.valueOf(count.longValue() + 1));
+</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1256,10 +1421,15 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        }
+</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1280,10 +1450,15 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } catch (ClassCastException ex) {   
+</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1304,10 +1479,15 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new IllegalArgumentException("Value not comparable to existing values.");
+</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1328,10 +1508,15 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1352,10 +1537,15 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        addValue(Long.valueOf(v));
+</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1376,10 +1566,15 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1400,10 +1595,15 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        addValue(Long.valueOf(v.longValue()));
+</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1424,10 +1624,15 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1448,10 +1653,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        addValue(Long.valueOf(v));
+</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1472,10 +1682,15 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1496,10 +1711,15 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        addValue(Character.valueOf(v));
+</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1520,10 +1740,15 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1544,10 +1769,15 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        freqTable.clear();
+</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1568,10 +1798,15 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1592,10 +1827,15 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return freqTable.keySet().iterator();
+</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1616,10 +1856,15 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long result = 0;
+</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1640,10 +1885,15 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Iterator iterator = freqTable.values().iterator();
+</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1664,10 +1914,15 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        while (iterator.hasNext())  {
+</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1688,10 +1943,15 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            result += ((Long) iterator.next()).longValue();
+</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1712,10 +1972,15 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return result;
+</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1736,10 +2001,15 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (v instanceof Integer) {
+</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1760,10 +2030,15 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return getCount(((Integer) v).longValue());
+</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1784,10 +2059,15 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long result = 0;
+</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1808,10 +2088,15 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Long count =  (Long) freqTable.get(v);
+</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1832,10 +2117,15 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (count != null) {
+</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1856,10 +2146,15 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                result = count.longValue();
+</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1880,10 +2175,15 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        }
+</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1904,10 +2204,15 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } catch (ClassCastException ex) {
+</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1928,10 +2233,15 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return result;
+</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1952,10 +2262,15 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getCount(Long.valueOf(v));
+</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1976,10 +2291,15 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getCount(Long.valueOf(v));
+</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2000,10 +2320,15 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getCount(Character.valueOf(v));
+</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2024,10 +2349,15 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        final long sumFreq = getSumFreq();
+</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2048,10 +2378,15 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (sumFreq == 0) {
+</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2072,10 +2407,15 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Double.NaN;
+</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2096,10 +2436,15 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (double) getCount(v) / (double) sumFreq;        
+</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2120,10 +2465,15 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getPct(Long.valueOf(v));       
+</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2144,10 +2494,15 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getPct(Long.valueOf(v));         
+</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2168,10 +2523,15 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getPct(Character.valueOf(v));         
+</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2192,10 +2552,15 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (getSumFreq() == 0) {
+</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2216,10 +2581,15 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return 0;
+</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2240,10 +2610,15 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (v instanceof Integer) {
+</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2264,10 +2639,15 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return getCumFreq(((Integer) v).longValue());
+</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2288,10 +2668,15 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Comparator c = freqTable.comparator();
+</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2312,10 +2697,15 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (c == null) {
+</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2336,10 +2726,15 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            c = new NaturalComparator();
+</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2360,10 +2755,15 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        long result = 0;
+</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2384,10 +2784,15 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Long value = (Long) freqTable.get(v);
+</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2408,10 +2813,15 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (value != null) {
+</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2432,10 +2842,15 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                result = value.longValue();
+</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2456,10 +2871,15 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        }
+</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2480,10 +2900,15 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } catch (ClassCastException ex) {
+</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2504,10 +2929,15 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return result;   // v is not comparable
+</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2528,10 +2958,15 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (c.compare(v, freqTable.firstKey()) &lt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2552,10 +2987,15 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return 0;  // v is comparable, but less than first value
+</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2576,10 +3016,15 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (c.compare(v, freqTable.lastKey()) &gt;= 0) {
+</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2600,10 +3045,15 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return getSumFreq();    // v is comparable, but greater than the last value
+</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2624,10 +3074,15 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Iterator values = valuesIterator();
+</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2648,10 +3103,15 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        while (values.hasNext()) {
+</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2672,10 +3132,15 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Object nextValue = values.next();
+</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2696,10 +3161,15 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (c.compare(v, nextValue) &gt; 0) {
+</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2720,10 +3190,15 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                result += getCount(nextValue);
+</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2744,10 +3219,15 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return result;
+</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2768,10 +3248,15 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        }
+</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2792,10 +3277,15 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return result;
+</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2816,10 +3306,15 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getCumFreq(Long.valueOf(v));       
+</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2840,10 +3335,15 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getCumFreq(Long.valueOf(v));         
+</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2864,10 +3364,15 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getCumFreq(Character.valueOf(v));         
+</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2888,10 +3393,15 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        final long sumFreq = getSumFreq();
+</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2912,10 +3422,15 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (sumFreq == 0) {
+</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2936,10 +3451,15 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            return Double.NaN;
+</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2960,10 +3480,15 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (double) getCumFreq(v) / (double) sumFreq;        
+</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2984,10 +3509,15 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getCumPct(Long.valueOf(v));       
+</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3008,10 +3538,15 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getCumPct(Long.valueOf(v));         
+</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3032,10 +3567,15 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return getCumPct(Character.valueOf(v));         
+</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>0.00000</t>
